--- a/Blue Kaizo Docs/Blue Kaizo TMs+Items.xlsx
+++ b/Blue Kaizo Docs/Blue Kaizo TMs+Items.xlsx
@@ -48,6 +48,42 @@
     <t>-</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Route 16 (NW area, from girl in house)</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Surf</t>
+  </si>
+  <si>
+    <t>Safari Zone (Area 3, from man in Secret House)</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Fuchsia City (trade Safari Zone Warden for Gold Teeth)</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>Route 2 (from aide at gate after registering 10 Pokémon)</t>
+  </si>
+  <si>
     <t>TM</t>
   </si>
   <si>
@@ -60,58 +96,22 @@
     <t>Celadon Department Store (2F)</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Fly</t>
-  </si>
-  <si>
-    <t>Route 16 (NW area, from girl in house)</t>
-  </si>
-  <si>
     <t>Razor Wind</t>
   </si>
   <si>
     <t>Rocket Hideout (B4F, NW area)</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Surf</t>
-  </si>
-  <si>
-    <t>Safari Zone (Area 3, from man in Secret House)</t>
-  </si>
-  <si>
     <t>Swords Dance</t>
   </si>
   <si>
     <t>Silph Co. (7F, E room)</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Fuchsia City (trade Safari Zone Warden for Gold Teeth)</t>
-  </si>
-  <si>
     <t>Whirlwind</t>
   </si>
   <si>
     <t>Route 4 (N plateau)</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>Route 2 (from aide at gate after registering 10 Pokémon)</t>
   </si>
   <si>
     <t>Mega Kick</t>
@@ -664,7 +664,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,6 +681,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF181011"/>
+        <bgColor rgb="FF181011"/>
       </patternFill>
     </fill>
     <fill>
@@ -736,15 +742,15 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -760,7 +766,7 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -778,44 +784,44 @@
     <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font/>
       <fill>
@@ -829,6 +835,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF181011"/>
+          <bgColor rgb="FF181011"/>
         </patternFill>
       </fill>
       <border/>
@@ -851,7 +867,7 @@
     </tableStyle>
     <tableStyle count="2" pivot="0" name="Items-style">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1158,10 +1174,10 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>12</v>
@@ -1169,13 +1185,13 @@
       <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="11">
-        <v>3000.0</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1184,15 +1200,15 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -1204,10 +1220,10 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>18</v>
@@ -1215,13 +1231,13 @@
       <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2000.0</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1238,7 +1254,7 @@
       <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1250,62 +1266,62 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3000.0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="10">
+        <v>2000.0</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>10</v>
@@ -1319,10 +1335,10 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
@@ -1342,10 +1358,10 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>33</v>
@@ -1354,7 +1370,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F11" s="10">
         <v>3000.0</v>
@@ -1365,7 +1381,7 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>35</v>
@@ -1388,7 +1404,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>39</v>
@@ -1400,7 +1416,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F13" s="10">
         <v>2000.0</v>
@@ -1411,7 +1427,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>42</v>
@@ -1434,7 +1450,7 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>45</v>
@@ -1446,7 +1462,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F15" s="10">
         <v>3000.0</v>
@@ -1457,7 +1473,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>48</v>
@@ -1480,7 +1496,7 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>51</v>
@@ -1503,7 +1519,7 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>55</v>
@@ -1526,7 +1542,7 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>58</v>
@@ -1549,7 +1565,7 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>61</v>
@@ -1572,7 +1588,7 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>64</v>
@@ -1595,7 +1611,7 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>68</v>
@@ -1618,7 +1634,7 @@
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>71</v>
@@ -1630,7 +1646,7 @@
         <v>73</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F23" s="10">
         <v>3000.0</v>
@@ -1641,7 +1657,7 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>74</v>
@@ -1664,7 +1680,7 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>77</v>
@@ -1687,7 +1703,7 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>80</v>
@@ -1710,7 +1726,7 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>83</v>
@@ -1722,7 +1738,7 @@
         <v>85</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>5000.0</v>
@@ -1733,7 +1749,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>86</v>
@@ -1756,7 +1772,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>88</v>
@@ -1779,7 +1795,7 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>90</v>
@@ -1802,7 +1818,7 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>93</v>
@@ -1825,7 +1841,7 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>96</v>
@@ -1848,7 +1864,7 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>99</v>
@@ -1871,7 +1887,7 @@
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>102</v>
@@ -1883,7 +1899,7 @@
         <v>104</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>2000.0</v>
@@ -1894,7 +1910,7 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>105</v>
@@ -1917,7 +1933,7 @@
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>108</v>
@@ -1940,7 +1956,7 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>111</v>
@@ -1963,7 +1979,7 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>114</v>
@@ -1986,7 +2002,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>117</v>
@@ -1998,7 +2014,7 @@
         <v>119</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F39" s="10">
         <v>1000.0</v>
@@ -2009,7 +2025,7 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>120</v>
@@ -2032,7 +2048,7 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>123</v>
@@ -2055,7 +2071,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>126</v>
@@ -2078,7 +2094,7 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>129</v>
@@ -2090,7 +2106,7 @@
         <v>131</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F43" s="10">
         <v>2000.0</v>
@@ -2101,7 +2117,7 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>132</v>
@@ -2124,7 +2140,7 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>136</v>
@@ -2147,7 +2163,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>139</v>
@@ -2170,7 +2186,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>142</v>
@@ -2193,7 +2209,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>145</v>
@@ -2216,7 +2232,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>148</v>
@@ -2239,7 +2255,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>151</v>
@@ -2262,7 +2278,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>154</v>
@@ -2285,7 +2301,7 @@
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>157</v>
@@ -2308,7 +2324,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>160</v>
@@ -2331,7 +2347,7 @@
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>163</v>
@@ -2354,7 +2370,7 @@
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>167</v>
@@ -2377,7 +2393,7 @@
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>170</v>
